--- a/2/6/Variación mensual 1928 a 2021 - Mensual.xlsx
+++ b/2/6/Variación mensual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1133">
   <si>
     <t>Serie</t>
   </si>
@@ -3410,6 +3410,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -3767,7 +3770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1121"/>
+  <dimension ref="A1:L1122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24195,6 +24198,38 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="1122" spans="1:12">
+      <c r="A1122" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B1122">
+        <v>0.8</v>
+      </c>
+      <c r="E1122">
+        <v>0.6</v>
+      </c>
+      <c r="F1122">
+        <v>0.7</v>
+      </c>
+      <c r="G1122">
+        <v>0.4</v>
+      </c>
+      <c r="H1122">
+        <v>1.2</v>
+      </c>
+      <c r="I1122">
+        <v>0.9</v>
+      </c>
+      <c r="J1122">
+        <v>1.1</v>
+      </c>
+      <c r="K1122">
+        <v>2.4</v>
+      </c>
+      <c r="L1122">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/6/Variación mensual 1928 a 2021 - Mensual.xlsx
+++ b/2/6/Variación mensual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1134">
   <si>
     <t>Serie</t>
   </si>
@@ -3413,6 +3413,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -3770,7 +3773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1122"/>
+  <dimension ref="A1:L1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24230,6 +24233,38 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="1123" spans="1:12">
+      <c r="A1123" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1123">
+        <v>0.4</v>
+      </c>
+      <c r="E1123">
+        <v>0.4</v>
+      </c>
+      <c r="F1123">
+        <v>0.2</v>
+      </c>
+      <c r="G1123">
+        <v>0.4</v>
+      </c>
+      <c r="H1123">
+        <v>-0.1</v>
+      </c>
+      <c r="I1123">
+        <v>0.7</v>
+      </c>
+      <c r="J1123">
+        <v>0.9</v>
+      </c>
+      <c r="K1123">
+        <v>1</v>
+      </c>
+      <c r="L1123">
+        <v>0.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/6/Variación mensual 1928 a 2021 - Mensual.xlsx
+++ b/2/6/Variación mensual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1135">
   <si>
     <t>Serie</t>
   </si>
@@ -3416,6 +3416,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -3773,7 +3776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1123"/>
+  <dimension ref="A1:L1124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24265,6 +24268,38 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="1124" spans="1:12">
+      <c r="A1124" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B1124">
+        <v>1.2</v>
+      </c>
+      <c r="E1124">
+        <v>0.9</v>
+      </c>
+      <c r="F1124">
+        <v>0.7</v>
+      </c>
+      <c r="G1124">
+        <v>0.4</v>
+      </c>
+      <c r="H1124">
+        <v>1.2</v>
+      </c>
+      <c r="I1124">
+        <v>2</v>
+      </c>
+      <c r="J1124">
+        <v>3.2</v>
+      </c>
+      <c r="K1124">
+        <v>1</v>
+      </c>
+      <c r="L1124">
+        <v>1.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2/6/Variación mensual 1928 a 2021 - Mensual.xlsx
+++ b/2/6/Variación mensual 1928 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="1136">
   <si>
     <t>Serie</t>
   </si>
@@ -3419,6 +3419,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -3776,7 +3779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1124"/>
+  <dimension ref="A1:L1125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24300,6 +24303,38 @@
         <v>1.7</v>
       </c>
     </row>
+    <row r="1125" spans="1:12">
+      <c r="A1125" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1125">
+        <v>1.3</v>
+      </c>
+      <c r="E1125">
+        <v>1.4</v>
+      </c>
+      <c r="F1125">
+        <v>0.3</v>
+      </c>
+      <c r="G1125">
+        <v>0.6</v>
+      </c>
+      <c r="H1125">
+        <v>-0.1</v>
+      </c>
+      <c r="I1125">
+        <v>3.2</v>
+      </c>
+      <c r="J1125">
+        <v>0.8</v>
+      </c>
+      <c r="K1125">
+        <v>2.6</v>
+      </c>
+      <c r="L1125">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
